--- a/examples/excel/unit_economics_CALCULATED_20251104.xlsx
+++ b/examples/excel/unit_economics_CALCULATED_20251104.xlsx
@@ -2295,7 +2295,7 @@
     <row r="17">
       <c r="A17" s="10" t="inlineStr">
         <is>
-          <t>검색 광고 (네이버, Google)</t>
+          <t>검색</t>
         </is>
       </c>
       <c r="B17" s="24" t="n">
@@ -2312,7 +2312,7 @@
     <row r="18">
       <c r="A18" s="10" t="inlineStr">
         <is>
-          <t>SNS 광고 (Instagram, Facebook)</t>
+          <t>SNS</t>
         </is>
       </c>
       <c r="B18" s="24" t="n">
@@ -2329,7 +2329,7 @@
     <row r="19">
       <c r="A19" s="10" t="inlineStr">
         <is>
-          <t>제휴 마케팅 (블로그, 유튜버)</t>
+          <t>제휴</t>
         </is>
       </c>
       <c r="B19" s="24" t="n">
@@ -2346,7 +2346,7 @@
     <row r="20">
       <c r="A20" s="10" t="inlineStr">
         <is>
-          <t>오프라인 이벤트</t>
+          <t>오프라인</t>
         </is>
       </c>
       <c r="B20" s="24" t="n">
